--- a/Fase 2/evidencias grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
+++ b/Fase 2/evidencias grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrodriguez/Desktop/ACL/DUOC/PTY4614/Capstone/001/INMOBILIAPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227ED643-68E1-AB41-86DD-F2B7D674E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139E11FF-F4A9-984C-87DA-3D9B84C69A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,9 +991,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1002,18 +999,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1627,7 +1627,7 @@
   <dimension ref="A2:K926"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C4" s="5">
         <f>EVALUACION1!$C$21</f>
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="D4" s="5">
         <f>$C$32</f>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E4" s="6">
         <f>C4*C$2+D4*D$2</f>
-        <v>4.6749999999999998</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C5" s="5">
         <f>EVALUACION1!$C$21</f>
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="D5" s="5">
         <f>C44</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5" si="0">C5*C$2+D5*D$2</f>
-        <v>4.6749999999999998</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1724,22 +1724,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="25" t="s">
         <v>12</v>
       </c>
@@ -1747,19 +1747,19 @@
       <c r="D12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="68" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="65"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="1:11" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
@@ -1768,15 +1768,15 @@
         <v>1. Implementa una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" ref="D13:D16" si="1">IF($C13=CL,"X","")</f>
-        <v/>
-      </c>
-      <c r="E13" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="E13" s="17">
         <f>IF(D13="X",100*0.1,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F13" s="17" t="str">
         <f t="shared" ref="F13:F16" si="2">IF($C13=L,"X","")</f>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="H13" s="17" t="str">
         <f t="shared" ref="H13:H16" si="3">IF($C13=ML,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="I13" s="17">
+        <v/>
+      </c>
+      <c r="I13" s="17" t="str">
         <f>IF(H13="X",30*0.1,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="J13" s="17" t="str">
         <f t="shared" ref="J13:J16" si="4">IF($C13=NL,"X","")</f>
@@ -1978,23 +1978,23 @@
         <v>7. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="17" t="str">
         <f>IF($C18=CL,"X","")</f>
-        <v/>
-      </c>
-      <c r="E18" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="E18" s="17">
         <f>IF(D18="X",100*0.15,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="F18" s="17" t="str">
         <f>IF($C18=L,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="G18" s="17">
+        <v/>
+      </c>
+      <c r="G18" s="17" t="str">
         <f>IF(F18="X",60*0.15,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="H18" s="17" t="str">
         <f>IF($C18=ML,"X","")</f>
@@ -2020,23 +2020,23 @@
         <v>9.-Generan evidencias claras dentro del repositorio  del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="17" t="str">
         <f>IF($C19=CL,"X","")</f>
-        <v/>
-      </c>
-      <c r="E19" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="E19" s="17">
         <f>IF(D19="X",100*0.15,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="F19" s="17" t="str">
         <f>IF($C19=L,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="G19" s="17">
+        <v/>
+      </c>
+      <c r="G19" s="17" t="str">
         <f>IF(F19="X",60*0.15,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="H19" s="17" t="str">
         <f>IF($C19=ML,"X","")</f>
@@ -2056,28 +2056,28 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="33">
         <f>E20+G20+I20+K20</f>
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
         <f>SUM(E13:E19)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20">
         <f>SUM(G13:G19)</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20">
         <f>SUM(I13:I19)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20">
@@ -2092,65 +2092,65 @@
       </c>
       <c r="C21" s="21">
         <f>VLOOKUP(C20,ESCALA_IEP!A1:B152,2,FALSE)</f>
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="58" t="str">
+      <c r="C24" s="57" t="str">
         <f>$B$4</f>
         <v>Bastián Bouffanais</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
@@ -2158,22 +2158,22 @@
       <c r="D27" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="68" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="30" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="30" t="str">
         <f>RUBRICA!A11</f>
         <v>8. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="30" t="str">
         <f>RUBRICA!A13</f>
         <v>10. Colaboración y trabajo en equipo *</v>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="22" t="s">
         <v>14</v>
       </c>
@@ -2348,59 +2348,59 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="58" t="str">
+      <c r="C36" s="57" t="str">
         <f>B5</f>
         <v>Cristóbal López</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="16" t="s">
         <v>12</v>
       </c>
@@ -2408,22 +2408,22 @@
       <c r="D39" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="68" t="s">
+      <c r="G39" s="66"/>
+      <c r="H39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="65"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="65"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="30" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2465,7 +2465,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="30" t="str">
         <f>RUBRICA!A11</f>
         <v>8. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2507,7 +2507,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="30" t="str">
         <f>RUBRICA!A13</f>
         <v>10. Colaboración y trabajo en equipo *</v>
@@ -2549,7 +2549,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="22" t="s">
         <v>14</v>
       </c>
@@ -2597,59 +2597,59 @@
       <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="57">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="60"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="16" t="s">
         <v>12</v>
       </c>
@@ -2657,22 +2657,22 @@
       <c r="D50" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="65"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="68" t="s">
+      <c r="G50" s="66"/>
+      <c r="H50" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="65"/>
+      <c r="I50" s="66"/>
       <c r="J50" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="65"/>
+      <c r="K50" s="66"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="30" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="30" t="str">
         <f>RUBRICA!A11</f>
         <v>8. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2756,7 +2756,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="30" t="str">
         <f>RUBRICA!A13</f>
         <v>10. Colaboración y trabajo en equipo *</v>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="22" t="s">
         <v>14</v>
       </c>
@@ -3713,14 +3713,17 @@
     <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:K37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:K48"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="E2:E3"/>
@@ -3737,17 +3740,14 @@
     <mergeCell ref="D26:K26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:K48"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:K37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
